--- a/PARA.xlsx
+++ b/PARA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6C8D7-121C-46D4-99AE-ACCBE76BC1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A70D6F-728C-4CAE-AD06-8A44403DB647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{D2EC6A44-7386-4FB3-946F-AEEB1F120ED2}"/>
   </bookViews>
@@ -37,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>Paramount</t>
   </si>
   <si>
     <t>IR</t>
-  </si>
-  <si>
-    <t>PARA</t>
   </si>
   <si>
     <t>numbers in mio USD</t>
@@ -293,6 +290,18 @@
   <si>
     <t>Q425</t>
   </si>
+  <si>
+    <t>PSKY (former PARA)</t>
+  </si>
+  <si>
+    <t>Merger with Skydance Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 7 2025: Skydance Media and Paramount Global annouced merger, </t>
+  </si>
+  <si>
+    <t>https://ir.paramount.com/news-releases/news-release-details/skydance-media-and-paramount-global-complete-merger-creating</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +309,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -527,7 +536,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -864,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930B179E-FD01-40D8-928A-BC979D681487}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,22 +895,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
       <c r="I2">
-        <v>11.99</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2">
-        <f>40.702683+633.455085</f>
-        <v>674.15776800000003</v>
+        <v>675</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>81</v>
@@ -909,14 +917,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2">
         <f>+I3*I2</f>
-        <v>8083.1516383200005</v>
+        <v>9315</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -924,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2">
-        <v>2673</v>
+        <v>2739</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>81</v>
@@ -935,11 +943,11 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="2">
-        <f>346+14161</f>
-        <v>14507</v>
+        <f>14168+346</f>
+        <v>14514</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>81</v>
@@ -947,31 +955,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="2">
         <f>+I4-I5+I6</f>
-        <v>19917.15163832</v>
+        <v>21090</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="17">
         <v>0.62688976955819753</v>
@@ -980,28 +988,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="18">
         <v>0.27594305005137237</v>
       </c>
       <c r="E9" s="12"/>
       <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
         <v>79</v>
-      </c>
-      <c r="I9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="19">
         <v>9.9662410098341411E-2</v>
@@ -1010,44 +1018,59 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1063,10 +1086,10 @@
   <dimension ref="A1:AW193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,71 +1100,71 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3">
         <v>60</v>
@@ -1169,7 +1192,9 @@
       <c r="K3" s="3">
         <v>79</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>77.7</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
@@ -1205,7 +1230,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="22">
         <v>2651</v>
@@ -1271,7 +1296,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="22">
         <v>3179</v>
@@ -1337,7 +1362,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="22">
         <v>127</v>
@@ -1403,7 +1428,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="22">
         <v>1308</v>
@@ -1469,7 +1494,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="22">
         <v>5193</v>
@@ -1494,7 +1519,9 @@
       <c r="K9" s="22">
         <v>4538</v>
       </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="22">
+        <v>4011</v>
+      </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
@@ -1541,7 +1568,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="22">
         <v>1510</v>
@@ -1566,7 +1593,9 @@
       <c r="K10" s="22">
         <v>2044</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="22">
+        <v>2160</v>
+      </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -1613,7 +1642,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="22">
         <v>588</v>
@@ -1638,7 +1667,9 @@
       <c r="K11" s="22">
         <v>627</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="22">
+        <v>690</v>
+      </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
@@ -1685,7 +1716,7 @@
     </row>
     <row r="12" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="24">
         <v>7265</v>
@@ -1710,7 +1741,9 @@
       <c r="K12" s="24">
         <v>7192</v>
       </c>
-      <c r="L12" s="24"/>
+      <c r="L12" s="24">
+        <v>6849</v>
+      </c>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -1759,7 +1792,7 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="22">
         <v>4964</v>
@@ -1784,7 +1817,9 @@
       <c r="K13" s="22">
         <v>4961</v>
       </c>
-      <c r="L13" s="22"/>
+      <c r="L13" s="22">
+        <v>4624</v>
+      </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
@@ -1833,7 +1868,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="22">
         <f t="shared" ref="C14:G14" si="0">+C12-C13</f>
@@ -1860,18 +1895,21 @@
         <v>2446</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" ref="I14:J14" si="1">+I12-I13</f>
+        <f t="shared" ref="I14" si="1">+I12-I13</f>
         <v>2389</v>
       </c>
       <c r="J14" s="22">
-        <f t="shared" ref="J14:K14" si="2">+J12-J13</f>
+        <f t="shared" ref="J14:L14" si="2">+J12-J13</f>
         <v>0</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="2"/>
         <v>2231</v>
       </c>
-      <c r="L14" s="22"/>
+      <c r="L14" s="22">
+        <f t="shared" si="2"/>
+        <v>2225</v>
+      </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
@@ -1936,7 +1974,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="22">
         <v>1674</v>
@@ -1961,7 +1999,9 @@
       <c r="K15" s="22">
         <v>0</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -2010,7 +2050,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="22">
         <v>1753</v>
@@ -2035,7 +2075,9 @@
       <c r="K16" s="22">
         <v>1543</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="22">
+        <v>1401</v>
+      </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -2084,7 +2126,7 @@
     </row>
     <row r="17" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="22">
         <v>100</v>
@@ -2109,7 +2151,9 @@
       <c r="K17" s="22">
         <v>88</v>
       </c>
-      <c r="L17" s="22"/>
+      <c r="L17" s="22">
+        <v>87</v>
+      </c>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -2158,7 +2202,7 @@
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="22">
         <v>0</v>
@@ -2183,7 +2227,9 @@
       <c r="K18" s="22">
         <v>85</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="22">
+        <v>157</v>
+      </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -2232,7 +2278,7 @@
     </row>
     <row r="19" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="22">
         <v>0</v>
@@ -2257,7 +2303,9 @@
       <c r="K19" s="22">
         <v>-35</v>
       </c>
-      <c r="L19" s="22"/>
+      <c r="L19" s="22">
+        <v>181</v>
+      </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -2308,7 +2356,7 @@
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="22">
         <f t="shared" ref="C20:G20" si="11">+C14-SUM(C15:C19)</f>
@@ -2335,18 +2383,21 @@
         <v>-5318</v>
       </c>
       <c r="I20" s="22">
-        <f t="shared" ref="I20:J20" si="12">+I14-SUM(I15:I19)</f>
+        <f t="shared" ref="I20" si="12">+I14-SUM(I15:I19)</f>
         <v>337</v>
       </c>
       <c r="J20" s="22">
-        <f t="shared" ref="J20:K20" si="13">+J14-SUM(J15:J19)</f>
+        <f t="shared" ref="J20:L20" si="13">+J14-SUM(J15:J19)</f>
         <v>0</v>
       </c>
       <c r="K20" s="22">
         <f t="shared" si="13"/>
         <v>550</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="22">
+        <f t="shared" si="13"/>
+        <v>399</v>
+      </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -2408,7 +2459,7 @@
     </row>
     <row r="21" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="22">
         <v>226</v>
@@ -2433,7 +2484,9 @@
       <c r="K21" s="22">
         <v>217</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="22">
+        <v>214</v>
+      </c>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -2482,7 +2535,7 @@
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="22">
         <v>35</v>
@@ -2507,7 +2560,9 @@
       <c r="K22" s="22">
         <v>38</v>
       </c>
-      <c r="L22" s="22"/>
+      <c r="L22" s="22">
+        <v>32</v>
+      </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
@@ -2556,7 +2611,7 @@
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="22">
         <v>0</v>
@@ -2581,7 +2636,9 @@
       <c r="K23" s="22">
         <v>0</v>
       </c>
-      <c r="L23" s="22"/>
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
@@ -2630,7 +2687,7 @@
     </row>
     <row r="24" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="22">
         <v>-46</v>
@@ -2655,7 +2712,9 @@
       <c r="K24" s="22">
         <v>-37</v>
       </c>
-      <c r="L24" s="22"/>
+      <c r="L24" s="22">
+        <v>-39</v>
+      </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
@@ -2707,7 +2766,7 @@
     </row>
     <row r="25" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="22">
         <f t="shared" ref="C25:G25" si="21">+C20-C21+C22+C23+C24</f>
@@ -2734,18 +2793,21 @@
         <v>-5547</v>
       </c>
       <c r="I25" s="22">
-        <f t="shared" ref="I25:J25" si="22">+I20-I21+I22+I23+I24</f>
+        <f t="shared" ref="I25" si="22">+I20-I21+I22+I23+I24</f>
         <v>120</v>
       </c>
       <c r="J25" s="22">
-        <f t="shared" ref="J25:K25" si="23">+J20-J21+J22+J23+J24</f>
+        <f t="shared" ref="J25:L25" si="23">+J20-J21+J22+J23+J24</f>
         <v>0</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="23"/>
         <v>334</v>
       </c>
-      <c r="L25" s="22"/>
+      <c r="L25" s="22">
+        <f t="shared" si="23"/>
+        <v>178</v>
+      </c>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
@@ -2810,7 +2872,7 @@
     </row>
     <row r="26" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="22">
         <v>-381</v>
@@ -2835,7 +2897,9 @@
       <c r="K26" s="22">
         <v>100</v>
       </c>
-      <c r="L26" s="22"/>
+      <c r="L26" s="22">
+        <v>50</v>
+      </c>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
@@ -2884,7 +2948,7 @@
     </row>
     <row r="27" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="22">
         <v>-75</v>
@@ -2909,7 +2973,9 @@
       <c r="K27" s="22">
         <v>-73</v>
       </c>
-      <c r="L27" s="22"/>
+      <c r="L27" s="22">
+        <v>-67</v>
+      </c>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
@@ -2958,7 +3024,7 @@
     </row>
     <row r="28" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="22">
         <f t="shared" ref="C28:G28" si="31">+C25-C26+C27</f>
@@ -2985,18 +3051,21 @@
         <v>-5404</v>
       </c>
       <c r="I28" s="22">
-        <f t="shared" ref="I28:J28" si="32">+I25-I26+I27</f>
+        <f t="shared" ref="I28" si="32">+I25-I26+I27</f>
         <v>16</v>
       </c>
       <c r="J28" s="22">
-        <f t="shared" ref="J28:K28" si="33">+J25-J26+J27</f>
+        <f t="shared" ref="J28:L28" si="33">+J25-J26+J27</f>
         <v>0</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="33"/>
         <v>161</v>
       </c>
-      <c r="L28" s="22"/>
+      <c r="L28" s="22">
+        <f t="shared" si="33"/>
+        <v>61</v>
+      </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
@@ -3058,7 +3127,7 @@
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="22">
         <v>-45</v>
@@ -3083,7 +3152,9 @@
       <c r="K29" s="22">
         <v>0</v>
       </c>
-      <c r="L29" s="22"/>
+      <c r="L29" s="22">
+        <v>9</v>
+      </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
@@ -3132,7 +3203,7 @@
     </row>
     <row r="30" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="22">
         <v>6</v>
@@ -3157,7 +3228,9 @@
       <c r="K30" s="22">
         <v>9</v>
       </c>
-      <c r="L30" s="22"/>
+      <c r="L30" s="22">
+        <v>-4</v>
+      </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
@@ -3206,7 +3279,7 @@
     </row>
     <row r="31" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="22">
         <f t="shared" ref="C31:G31" si="41">+C28-SUM(C29:C30)</f>
@@ -3233,18 +3306,21 @@
         <v>-5413</v>
       </c>
       <c r="I31" s="22">
-        <f t="shared" ref="I31:J31" si="42">+I28-SUM(I29:I30)</f>
+        <f t="shared" ref="I31" si="42">+I28-SUM(I29:I30)</f>
         <v>1</v>
       </c>
       <c r="J31" s="22">
-        <f t="shared" ref="J31:K31" si="43">+J28-SUM(J29:J30)</f>
+        <f t="shared" ref="J31:L31" si="43">+J28-SUM(J29:J30)</f>
         <v>0</v>
       </c>
       <c r="K31" s="22">
         <f t="shared" si="43"/>
         <v>152</v>
       </c>
-      <c r="L31" s="22"/>
+      <c r="L31" s="22">
+        <f t="shared" si="43"/>
+        <v>56</v>
+      </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
@@ -3344,7 +3420,7 @@
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="26">
         <f t="shared" ref="C33:G33" si="51">+C31/C34</f>
@@ -3379,10 +3455,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="26">
-        <f t="shared" ref="K33" si="53">+K31/K34</f>
+        <f t="shared" ref="K33:L33" si="53">+K31/K34</f>
         <v>0.22619047619047619</v>
       </c>
-      <c r="L33" s="22"/>
+      <c r="L33" s="26">
+        <f t="shared" si="53"/>
+        <v>8.2962962962962961E-2</v>
+      </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -3433,7 +3512,7 @@
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2">
         <v>651</v>
@@ -3458,7 +3537,9 @@
       <c r="K34" s="2">
         <v>672</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2">
+        <v>675</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3534,7 +3615,7 @@
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3553,14 +3634,17 @@
         <v>5.1169590643274754E-2</v>
       </c>
       <c r="J36" s="21">
-        <f t="shared" ref="J36:K36" si="62">+J3/F3-1</f>
+        <f t="shared" ref="J36:L36" si="62">+J3/F3-1</f>
         <v>-1</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="62"/>
         <v>0.1095505617977528</v>
       </c>
-      <c r="L36" s="21"/>
+      <c r="L36" s="21">
+        <f t="shared" si="62"/>
+        <v>0.13596491228070162</v>
+      </c>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="2"/>
@@ -3608,7 +3692,7 @@
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3627,14 +3711,17 @@
         <v>-5.8900810159842387E-2</v>
       </c>
       <c r="J37" s="21" t="e">
-        <f t="shared" ref="J37:K40" si="66">+J9/F9-1</f>
+        <f t="shared" ref="J37:L40" si="66">+J9/F9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="66"/>
         <v>-0.13247944943605428</v>
       </c>
-      <c r="L37" s="21"/>
+      <c r="L37" s="21">
+        <f t="shared" si="66"/>
+        <v>-6.0875673144462628E-2</v>
+      </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
       <c r="O37" s="2"/>
@@ -3682,7 +3769,7 @@
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3708,7 +3795,10 @@
         <f t="shared" si="66"/>
         <v>8.7812666311867904E-2</v>
       </c>
-      <c r="L38" s="21"/>
+      <c r="L38" s="21">
+        <f t="shared" si="66"/>
+        <v>0.14893617021276606</v>
+      </c>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
       <c r="O38" s="2"/>
@@ -3756,7 +3846,7 @@
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3782,7 +3872,10 @@
         <f t="shared" si="66"/>
         <v>3.6363636363636376E-2</v>
       </c>
-      <c r="L39" s="21"/>
+      <c r="L39" s="21">
+        <f t="shared" si="66"/>
+        <v>1.6200294550809957E-2</v>
+      </c>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="2"/>
@@ -3830,7 +3923,7 @@
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -3856,7 +3949,10 @@
         <f t="shared" si="66"/>
         <v>-6.4150943396226401E-2</v>
       </c>
-      <c r="L40" s="25"/>
+      <c r="L40" s="25">
+        <f t="shared" si="66"/>
+        <v>5.2840158520475189E-3</v>
+      </c>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
       <c r="O40" s="16"/>
@@ -3904,7 +4000,7 @@
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="21">
         <f t="shared" ref="C41:H41" si="71">+C14/C12</f>
@@ -3942,36 +4038,39 @@
         <f t="shared" si="72"/>
         <v>0.31020578420467187</v>
       </c>
-      <c r="L41" s="21"/>
+      <c r="L41" s="21">
+        <f t="shared" ref="L41" si="73">+L14/L12</f>
+        <v>0.32486494378741421</v>
+      </c>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
       <c r="O41" s="2"/>
       <c r="P41" s="21" t="e">
-        <f t="shared" ref="P41:V41" si="73">+P14/P12</f>
+        <f t="shared" ref="P41:V41" si="74">+P14/P12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="21" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="21" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.37927656894983558</v>
       </c>
       <c r="T41" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.3418783577634808</v>
       </c>
       <c r="U41" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.32493592337784971</v>
       </c>
       <c r="V41" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.33464553452230172</v>
       </c>
       <c r="W41" s="2"/>
@@ -3993,30 +4092,30 @@
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="21">
-        <f t="shared" ref="C42:H42" si="74">+C20/C12</f>
+        <f t="shared" ref="C42:H42" si="75">+C20/C12</f>
         <v>-0.16875430144528561</v>
       </c>
       <c r="D42" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-3.2825630252100842E-2</v>
       </c>
       <c r="E42" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>8.7060142997336318E-2</v>
       </c>
       <c r="F42" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G42" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-5.4261548471047492E-2</v>
       </c>
       <c r="H42" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.78056656392191404</v>
       </c>
       <c r="I42" s="21">
@@ -4024,43 +4123,46 @@
         <v>5.0066854850690831E-2</v>
       </c>
       <c r="J42" s="21" t="e">
-        <f t="shared" ref="J42:K42" si="75">+J20/J12</f>
+        <f t="shared" ref="J42:K42" si="76">+J20/J12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K42" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7.6473859844271408E-2</v>
       </c>
-      <c r="L42" s="21"/>
+      <c r="L42" s="21">
+        <f t="shared" ref="L42" si="77">+L20/L12</f>
+        <v>5.8256679807271138E-2</v>
+      </c>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
       <c r="O42" s="2"/>
       <c r="P42" s="21" t="e">
-        <f t="shared" ref="P42:V42" si="76">+P20/P12</f>
+        <f t="shared" ref="P42:V42" si="78">+P20/P12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="21" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R42" s="21" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S42" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.22028265584551879</v>
       </c>
       <c r="T42" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>7.7667971081780196E-2</v>
       </c>
       <c r="U42" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>-1.520976662619722E-2</v>
       </c>
       <c r="V42" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>-0.18036490603498442</v>
       </c>
       <c r="W42" s="2"/>
@@ -4082,30 +4184,30 @@
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="21">
-        <f t="shared" ref="C43:H43" si="77">+C26/C25</f>
+        <f t="shared" ref="C43:H43" si="79">+C26/C25</f>
         <v>0.26042378673957622</v>
       </c>
       <c r="D43" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.27220630372492838</v>
       </c>
       <c r="E43" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.10638297872340426</v>
       </c>
       <c r="F43" s="21" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G43" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.27086614173228346</v>
       </c>
       <c r="H43" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>3.875968992248062E-2</v>
       </c>
       <c r="I43" s="21">
@@ -4113,43 +4215,46 @@
         <v>0.375</v>
       </c>
       <c r="J43" s="21" t="e">
-        <f t="shared" ref="J43:K43" si="78">+J26/J25</f>
+        <f t="shared" ref="J43:K43" si="80">+J26/J25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.29940119760479039</v>
       </c>
-      <c r="L43" s="21"/>
+      <c r="L43" s="21">
+        <f t="shared" ref="L43" si="81">+L26/L25</f>
+        <v>0.2808988764044944</v>
+      </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
       <c r="O43" s="2"/>
       <c r="P43" s="21" t="e">
-        <f t="shared" ref="P43:V43" si="79">+P26/P25</f>
+        <f t="shared" ref="P43:V43" si="82">+P26/P25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" s="21" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R43" s="21" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S43" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.12408759124087591</v>
       </c>
       <c r="T43" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.17930489731437599</v>
       </c>
       <c r="U43" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0.28810853950518756</v>
       </c>
       <c r="V43" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>4.9376720090658896E-2</v>
       </c>
       <c r="W43" s="2"/>
